--- a/VodovozReports/Reports/Client/DebtorsJournalReport.xlsx
+++ b/VodovozReports/Reports/Client/DebtorsJournalReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\ТЕСТ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF701552-8C7B-4582-817F-1B93A7ABBDBC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E0094A-C51A-4A36-90BC-C8F0B0167E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="Rows">Лист1!$A$4:$G$5</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Отчёт по задолженностям</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>{{item.LastOrderBottles}}</t>
+  </si>
+  <si>
+    <t>Итого:</t>
   </si>
 </sst>
 </file>
@@ -158,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -180,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI5"/>
+  <dimension ref="A1:AMI6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:G1"/>
@@ -579,6 +585,19 @@
       </c>
     </row>
     <row r="5" spans="1:1023" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.2">
+      <c r="E6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1">
+        <f>SUM(F4:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <f>SUM(G4:G5)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>

--- a/VodovozReports/Reports/Client/DebtorsJournalReport.xlsx
+++ b/VodovozReports/Reports/Client/DebtorsJournalReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\ТЕСТ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E0094A-C51A-4A36-90BC-C8F0B0167E35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0044CF84-5EFD-44CF-B721-8774E6D73C42}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -184,8 +184,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,15 +588,15 @@
       </c>
     </row>
     <row r="5" spans="1:1023" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1023" ht="12.75" x14ac:dyDescent="0.2">
       <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="9">
         <f>SUM(F4:F5)</f>
         <v>0</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="9">
         <f>SUM(G4:G5)</f>
         <v>0</v>
       </c>
